--- a/scripts/report/pairs-v6.xlsx
+++ b/scripts/report/pairs-v6.xlsx
@@ -4101,7 +4101,7 @@
         <v>40.04280223394357</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -4591,7 +4591,7 @@
         <v>50.5124584368011</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>50.5124584368011</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>40.04280223394357</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -11591,7 +11591,7 @@
         <v>50.5124584368011</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>40.04280223394357</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
         <v>0</v>
@@ -12501,7 +12501,7 @@
         <v>36.20300882535897</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G173" t="b">
         <v>0</v>
@@ -12991,7 +12991,7 @@
         <v>36.20300882535897</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
